--- a/Calculations.xlsx
+++ b/Calculations.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
   <si>
     <t>Knee back:</t>
   </si>
@@ -66,6 +66,15 @@
   </si>
   <si>
     <t>C</t>
+  </si>
+  <si>
+    <t>beta</t>
+  </si>
+  <si>
+    <t>|AB|</t>
+  </si>
+  <si>
+    <t>|BC|</t>
   </si>
 </sst>
 </file>
@@ -199,7 +208,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Arkusz1!$B$35:$B$37</c:f>
+              <c:f>Arkusz1!$B$36:$B$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -217,7 +226,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Arkusz1!$C$35:$C$37</c:f>
+              <c:f>Arkusz1!$C$36:$C$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -243,11 +252,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1529454640"/>
-        <c:axId val="1529461168"/>
+        <c:axId val="-1344867392"/>
+        <c:axId val="-1344861952"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1529454640"/>
+        <c:axId val="-1344867392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="-2"/>
@@ -305,12 +314,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1529461168"/>
+        <c:crossAx val="-1344861952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1529461168"/>
+        <c:axId val="-1344861952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -367,7 +376,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1529454640"/>
+        <c:crossAx val="-1344867392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -494,7 +503,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Arkusz1!$D$35:$D$37</c:f>
+              <c:f>Arkusz1!$D$36:$D$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -512,7 +521,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Arkusz1!$E$35:$E$37</c:f>
+              <c:f>Arkusz1!$E$36:$E$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -538,11 +547,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1895863968"/>
-        <c:axId val="1895864512"/>
+        <c:axId val="-1344866304"/>
+        <c:axId val="-1344865760"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1895863968"/>
+        <c:axId val="-1344866304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2"/>
@@ -600,12 +609,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1895864512"/>
+        <c:crossAx val="-1344865760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1895864512"/>
+        <c:axId val="-1344865760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -662,7 +671,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1895863968"/>
+        <c:crossAx val="-1344866304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1866,15 +1875,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>179293</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>22412</xdr:rowOff>
+      <xdr:colOff>161363</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>112059</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>466164</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>152399</xdr:rowOff>
+      <xdr:colOff>448234</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>80682</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1897,13 +1906,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>156883</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>13447</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>461683</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>125505</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2189,10 +2198,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A24:E37"/>
+  <dimension ref="A24:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2289,7 +2298,7 @@
         <v>1.402044982385606</v>
       </c>
       <c r="C30">
-        <f t="shared" ref="C30:E32" si="0">DEGREES(B30)</f>
+        <f t="shared" ref="C30:E33" si="0">DEGREES(B30)</f>
         <v>80.331260178189069</v>
       </c>
       <c r="D30">
@@ -2303,117 +2312,164 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B31">
-        <f>B30</f>
-        <v>1.402044982385606</v>
+        <f>PI() - B29</f>
+        <v>0.90020419994510936</v>
       </c>
       <c r="C31">
         <f t="shared" si="0"/>
-        <v>80.331260178189069</v>
+        <v>51.577901356805661</v>
       </c>
       <c r="D31">
-        <f>PI()-D30</f>
-        <v>2.3022491823307156</v>
+        <f>D29-PI()/2</f>
+        <v>0.6705921268497872</v>
       </c>
       <c r="E31">
         <f t="shared" si="0"/>
-        <v>131.90916153499475</v>
+        <v>38.422098643194339</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B32">
-        <f>PI()-B29</f>
-        <v>0.90020419994510936</v>
+        <f>B30</f>
+        <v>1.402044982385606</v>
       </c>
       <c r="C32">
         <f t="shared" si="0"/>
-        <v>51.577901356805661</v>
+        <v>80.331260178189069</v>
       </c>
       <c r="D32">
-        <f>D29-PI()/2</f>
-        <v>0.6705921268497872</v>
+        <f>PI()-D30</f>
+        <v>2.3022491823307156</v>
       </c>
       <c r="E32">
         <f t="shared" si="0"/>
+        <v>131.90916153499475</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33">
+        <f>1/2*PI()+B31</f>
+        <v>2.4710005267400059</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="0"/>
+        <v>141.57790135680565</v>
+      </c>
+      <c r="D33">
+        <f>D31</f>
+        <v>0.6705921268497872</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="0"/>
         <v>38.422098643194339</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B34" t="s">
-        <v>2</v>
-      </c>
-      <c r="C34" t="s">
-        <v>3</v>
-      </c>
-      <c r="D34" t="s">
-        <v>2</v>
-      </c>
-      <c r="E34" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>11</v>
-      </c>
-      <c r="B35">
-        <v>0</v>
-      </c>
-      <c r="C35">
-        <v>0</v>
-      </c>
-      <c r="D35">
-        <v>0</v>
-      </c>
-      <c r="E35">
-        <v>0</v>
+      <c r="B35" t="s">
+        <v>2</v>
+      </c>
+      <c r="C35" t="s">
+        <v>3</v>
+      </c>
+      <c r="D35" t="s">
+        <v>2</v>
+      </c>
+      <c r="E35" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B36">
-        <f>B35-COS(B31)</f>
-        <v>-0.16795156156793756</v>
+        <v>0</v>
       </c>
       <c r="C36">
-        <f>C35-SIN(B31)</f>
-        <v>-0.98579524900807436</v>
+        <v>0</v>
       </c>
       <c r="D36">
-        <f>D35-COS(D31)</f>
-        <v>0.66795156156793722</v>
+        <v>0</v>
       </c>
       <c r="E36">
-        <f>E35-SIN(PI()-D31)</f>
-        <v>-0.74420475099192562</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
+        <v>12</v>
+      </c>
+      <c r="B37">
+        <f>B36-COS(B32)</f>
+        <v>-0.16795156156793756</v>
+      </c>
+      <c r="C37">
+        <f>C36-SIN(B32)</f>
+        <v>-0.98579524900807436</v>
+      </c>
+      <c r="D37">
+        <f>D36-COS(D32)</f>
+        <v>0.66795156156793722</v>
+      </c>
+      <c r="E37">
+        <f>E36-SIN(PI()-D32)</f>
+        <v>-0.74420475099192562</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
         <v>13</v>
       </c>
-      <c r="B37">
-        <f>B36-COS(B31+B32)</f>
+      <c r="B38">
+        <f>B37-COS(B32+B33-PI()/2)</f>
         <v>0.49999999999999967</v>
       </c>
-      <c r="C37">
-        <f>C36-SIN(B31+B32)</f>
+      <c r="C38">
+        <f>C37-SIN(B32+B33-PI()/2)</f>
         <v>-1.73</v>
       </c>
-      <c r="D37">
-        <f>D36-COS(D31-PI()/2+D32)</f>
+      <c r="D38">
+        <f>D37-COS(D32-PI()/2+D33)</f>
         <v>0.49999999999999989</v>
       </c>
-      <c r="E37">
-        <f>E36-SIN(D31-PI()/2+D32)</f>
+      <c r="E38">
+        <f>E37-SIN(D32-PI()/2+D33)</f>
         <v>-1.73</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>15</v>
+      </c>
+      <c r="B39">
+        <f>(B36-B37)^2 + (C36-C37)^2</f>
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <f>(D36-D37)^2 + (E36-E37)^2</f>
+        <v>0.99999999999999978</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>16</v>
+      </c>
+      <c r="B40">
+        <f>(B37-B38)^2 + (C37-C38)^2</f>
+        <v>0.99999999999999978</v>
+      </c>
+      <c r="D40">
+        <f>(D37-D38)^2 + (E37-E38)^2</f>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
